--- a/cases_04_03_eod.xlsx
+++ b/cases_04_03_eod.xlsx
@@ -1027,12 +1027,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11,171</t>
+          <t>11,224</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>+42</t>
+          <t>+95</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1043,12 +1043,12 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1,749</t>
+          <t>2,022</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9,264</t>
+          <t>9,044</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1,240</t>
+          <t>1,246</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1243,10 +1243,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6,857</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>7,030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>+173</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve">36 </t>
@@ -1260,17 +1264,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6,483</t>
+          <t>6,656</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>115</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>812</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1341,10 +1345,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5,314</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>5,350</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>+36</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t xml:space="preserve">28 </t>
@@ -1362,7 +1370,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4,701</t>
+          <t>4,737</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1372,7 +1380,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1442,44 +1450,52 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3,858</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>4,149</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>+601</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">44 </t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t xml:space="preserve">34 </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>281</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3,747</t>
+          <t>3,834</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>28</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1491,44 +1507,52 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3,849</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>3,869</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>+11</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">98 </t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t xml:space="preserve">46 </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3,746</t>
+          <t>3,752</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>361</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1540,44 +1564,44 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3,548</t>
+          <t>3,849</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">30 </t>
+          <t xml:space="preserve">98 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3,283</t>
+          <t>3,746</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>109</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>779</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1589,44 +1613,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3,404</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>3,672</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>+286</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 </t>
+          <t xml:space="preserve">123 </t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1,089</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3,051</t>
+          <t>2,460</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>153</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>634</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1638,44 +1666,44 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3,386</t>
+          <t>3,404</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">123 </t>
+          <t xml:space="preserve">18 </t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1,089</t>
+          <t>335</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2,174</t>
+          <t>3,051</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>178</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1736,39 +1764,47 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3,116</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>3,149</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>+203</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">50 </t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t xml:space="preserve">59 </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2,299</t>
+          <t>3,034</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1785,39 +1821,39 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2,946</t>
+          <t>3,116</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">57 </t>
+          <t xml:space="preserve">50 </t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>767</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2,833</t>
+          <t>2,299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>105</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1834,44 +1870,52 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2,738</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>3,018</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>+385</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">115 </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t xml:space="preserve">136 </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>+29</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2,356</t>
+          <t>2,830</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>28</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1883,44 +1927,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2,633</t>
+          <t>2,738</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">107 </t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t xml:space="preserve">116 </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>267</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2,475</t>
+          <t>2,355</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>142</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2136,52 +2184,48 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1,978</t>
+          <t>1,986</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>+103</t>
+          <t>+196</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 </t>
+          <t xml:space="preserve">181 </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>+4</t>
+          <t>+11</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>134</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1,378</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>1,671</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2193,44 +2237,52 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1,885</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>1,978</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>+103</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">21 </t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t xml:space="preserve">19 </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>581</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1,536</t>
+          <t>1,378</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>28</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2242,35 +2294,39 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1,790</t>
+          <t>1,885</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">170 </t>
+          <t xml:space="preserve">21 </t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>328</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1,508</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>1,536</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2287,44 +2343,48 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1,544</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>1,615</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>+97</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">53 </t>
+          <t xml:space="preserve">19 </t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>300</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1,430</t>
+          <t>1,296</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>291</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2336,44 +2396,44 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1,518</t>
+          <t>1,544</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 </t>
+          <t xml:space="preserve">53 </t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1,199</t>
+          <t>1,430</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>91</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>148</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2839,10 +2899,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1,049</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>1,114</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>+65</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t xml:space="preserve">5 </t>
@@ -2860,7 +2924,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>843</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2870,7 +2934,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>190</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3030,44 +3094,52 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>949</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>+103</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t xml:space="preserve">12 </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>901</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>724</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3079,40 +3151,44 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>949</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>856</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>329</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3124,44 +3200,52 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>897</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>+45</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">17 </t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t xml:space="preserve">23 </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>900</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3173,48 +3257,44 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>868</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>+71</t>
-        </is>
-      </c>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">17 </t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>810</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>431</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3226,40 +3306,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>865</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>+71</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">58 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>103</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>606</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>180</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3271,44 +3359,40 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>865</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 </t>
+          <t xml:space="preserve">58 </t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>201</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>802</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3414,38 +3498,50 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Diamond Princess</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>712</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>+73</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 </t>
+          <t xml:space="preserve">7 </t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>686</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -3460,24 +3556,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>708</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>+27</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">44 </t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t xml:space="preserve">47 </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>654</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3487,7 +3591,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3504,50 +3608,38 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Diamond Princess</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>696</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>+47</t>
-        </is>
-      </c>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 </t>
+          <t xml:space="preserve">11 </t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>619</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -3557,44 +3649,48 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>663</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>+47</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 </t>
+          <t xml:space="preserve">9 </t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>680</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>256</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3717,10 +3813,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>533</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t xml:space="preserve">16 </t>
@@ -3729,12 +3829,12 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>500</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3744,7 +3844,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>166</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3859,54 +3959,46 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>493</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>+20</t>
+          <t>+35</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 </t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>462</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -3916,42 +4008,54 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>458</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>+20</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t xml:space="preserve">12 </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>435</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -4015,12 +4119,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>453</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>+13</t>
+          <t>+18</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4031,12 +4135,12 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>421</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4063,44 +4167,48 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>428</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>+43</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">15 </t>
+          <t xml:space="preserve">5 </t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>5,539</t>
+          <t>44</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4112,44 +4220,44 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>428</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">1  </t>
+          <t xml:space="preserve">15 </t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>403</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>5,539</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>194</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4161,44 +4269,44 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>426</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>420</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4210,46 +4318,46 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>396</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>+75</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>335</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -4259,44 +4367,44 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>396</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>388</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4308,48 +4416,44 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>369</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
-      </c>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 </t>
+          <t xml:space="preserve">11 </t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>356</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>184</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4361,44 +4465,48 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>356</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>+19</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 </t>
+          <t xml:space="preserve">4 </t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>297</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4410,44 +4518,44 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>348</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 </t>
+          <t xml:space="preserve">10 </t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>293</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>295</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4459,42 +4567,46 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">5 </t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
+          <t>293</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -4831,24 +4943,28 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>+21</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">30 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4858,17 +4974,17 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>7,221</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -4880,44 +4996,44 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>245</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 </t>
+          <t xml:space="preserve">30 </t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>194</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7,221</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>884</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -4929,7 +5045,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4940,31 +5056,35 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">6 </t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>214</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -4974,29 +5094,29 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>85</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>148</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5006,14 +5126,10 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -5408,10 +5524,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -5420,12 +5540,12 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>91</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>88</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5435,7 +5555,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>3,622</t>
+          <t>3,663</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5448,40 +5568,44 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>+10</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>34</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -5493,40 +5617,40 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">7 </t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>133</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -5538,44 +5662,44 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>+16</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>158</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>255</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -5587,46 +5711,46 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
-      </c>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">4 </t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -5636,29 +5760,33 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>+14</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>121</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5668,14 +5796,10 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -5685,40 +5809,44 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">5 </t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>98</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8244,12 +8372,12 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -8843,7 +8971,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8851,23 +8979,31 @@
           <t>7</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
       <c r="D183" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8880,7 +9016,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Vatican City</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -8904,7 +9040,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>8,739</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -8917,38 +9053,34 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Vatican City</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>8,739</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -8958,7 +9090,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8973,25 +9105,21 @@
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -9003,7 +9131,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9014,27 +9142,31 @@
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -9180,12 +9312,12 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H191" t="inlineStr"/>
